--- a/casos-de-teste-Iglu.xlsx
+++ b/casos-de-teste-Iglu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>CENÁRIO</t>
   </si>
@@ -79,6 +79,29 @@
   </si>
   <si>
     <t>Validar recuperação de senha de acesso</t>
+  </si>
+  <si>
+    <t>Dado que estou na tela de login do usuário
+Quando clico no campo 'esqueci a senha'
+Então [...]</t>
+  </si>
+  <si>
+    <t>Validação da tela de fornecedores</t>
+  </si>
+  <si>
+    <t>CT.2.1</t>
+  </si>
+  <si>
+    <t>Validar cadastro de fornecedores</t>
+  </si>
+  <si>
+    <t>Validar alteração de registros de fornecedores</t>
+  </si>
+  <si>
+    <t>CT.2.2</t>
+  </si>
+  <si>
+    <t>Validar exclusão de registros de fornecedores</t>
   </si>
 </sst>
 </file>
@@ -115,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,6 +185,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -173,25 +207,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -482,14 +516,14 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
@@ -498,49 +532,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -549,10 +583,10 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1"/>
@@ -560,15 +594,17 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
@@ -577,33 +613,47 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -614,7 +664,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -625,7 +675,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -636,7 +686,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -647,7 +697,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -658,7 +708,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -669,7 +719,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -680,7 +730,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -688,9 +738,10 @@
       <c r="I14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
